--- a/spec/support/files/2010_analyzed_mesh_terms.xlsx
+++ b/spec/support/files/2010_analyzed_mesh_terms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="-80" windowWidth="21940" windowHeight="7680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="77">
+  <si>
+    <t>A Pulmonary Term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,169 +118,194 @@
     <t>GI Hepatology</t>
   </si>
   <si>
+    <t>Infectious Diseases</t>
+  </si>
+  <si>
+    <t>Nephrology</t>
+  </si>
+  <si>
+    <t>Neurology</t>
+  </si>
+  <si>
+    <t>Psych General</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>Otolaryngology</t>
+  </si>
+  <si>
+    <t>Pulmonary Medicine</t>
+  </si>
+  <si>
+    <t>Reproductive Medicine</t>
+  </si>
+  <si>
+    <t>Psych Specific</t>
+  </si>
+  <si>
+    <t>Hepatology Specific</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Tabes Dorsalis</t>
+  </si>
+  <si>
+    <t>C01.252.410.110</t>
+  </si>
+  <si>
+    <t>C01.252.410.222</t>
+  </si>
+  <si>
+    <t>Clostridium Infections</t>
+  </si>
+  <si>
+    <t>C01.252.410.334</t>
+  </si>
+  <si>
+    <t>C01.252.410.868</t>
+  </si>
+  <si>
+    <t>Staphylococcal Infections</t>
+  </si>
+  <si>
+    <t>C01.252.410.890.670.595</t>
+  </si>
+  <si>
+    <t>Meningitis, Pneumococcal</t>
+  </si>
+  <si>
+    <t>C01.252.847.193.569.200</t>
+  </si>
+  <si>
+    <t>Erythema Chronicum Migrans</t>
+  </si>
+  <si>
+    <t>C01.252.847.511</t>
+  </si>
+  <si>
+    <t>Leptospirosis</t>
+  </si>
+  <si>
+    <t>C01.252.847.511.739</t>
+  </si>
+  <si>
+    <t>Weil Disease</t>
+  </si>
+  <si>
+    <t>C01.252.847.840.744.456</t>
+  </si>
+  <si>
+    <t>C01.252.847.840.744.456.778</t>
+  </si>
+  <si>
+    <t>C01.252.847.840.892</t>
+  </si>
+  <si>
+    <t>Yaws</t>
+  </si>
+  <si>
+    <t>C04.588.274.476.411.307.089.393</t>
+  </si>
+  <si>
+    <t>Gardner Syndrome</t>
+  </si>
+  <si>
+    <t>C04.588.274.476.411.307.180.800</t>
+  </si>
+  <si>
+    <t>Sigmoid Neoplasms</t>
+  </si>
+  <si>
+    <t>C04.588.274.476.411.307.790.040</t>
+  </si>
+  <si>
+    <t>Anus Neoplasms</t>
+  </si>
+  <si>
+    <t>C04.588.274.476.411.523</t>
+  </si>
+  <si>
+    <t>C04.588.274.476.767</t>
+  </si>
+  <si>
+    <t>Stomach Neoplasms</t>
+  </si>
+  <si>
+    <t>C04.588.274.761</t>
+  </si>
+  <si>
+    <t>C04.588.274.761.249</t>
+  </si>
+  <si>
+    <t>Adenoma, Islet Cell</t>
+  </si>
+  <si>
+    <t>C04.588.274.761.500.500</t>
+  </si>
+  <si>
+    <t>C04.588.274.780</t>
+  </si>
+  <si>
+    <t>Peritoneal Neoplasms</t>
+  </si>
+  <si>
+    <t>C04.588.322</t>
+  </si>
+  <si>
+    <t>Endocrine Gland Neoplasms</t>
+  </si>
+  <si>
+    <t>C04.588.443.591.545</t>
+  </si>
+  <si>
+    <t>mesh_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesh_term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dermatology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cardiology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G12.425.901.402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mental Retardation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C23.888.592.604.646</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Immuno Rheumatology</t>
-  </si>
-  <si>
-    <t>Infectious Diseases</t>
-  </si>
-  <si>
-    <t>Nephrology</t>
-  </si>
-  <si>
-    <t>Neurology</t>
-  </si>
-  <si>
-    <t>Psych General</t>
-  </si>
-  <si>
-    <t>Oncology</t>
-  </si>
-  <si>
-    <t>Otolaryngology</t>
-  </si>
-  <si>
-    <t>Pulmonary Medicine</t>
-  </si>
-  <si>
-    <t>Reproductive Medicine</t>
-  </si>
-  <si>
-    <t>Psych Specific</t>
-  </si>
-  <si>
-    <t>Hepatology Specific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Tabes Dorsalis</t>
-  </si>
-  <si>
-    <t>C01.252.410.110</t>
-  </si>
-  <si>
-    <t>C01.252.410.222</t>
-  </si>
-  <si>
-    <t>Clostridium Infections</t>
-  </si>
-  <si>
-    <t>C01.252.410.334</t>
-  </si>
-  <si>
-    <t>C01.252.410.868</t>
-  </si>
-  <si>
-    <t>Staphylococcal Infections</t>
-  </si>
-  <si>
-    <t>C01.252.410.890.670.595</t>
-  </si>
-  <si>
-    <t>Meningitis, Pneumococcal</t>
-  </si>
-  <si>
-    <t>C01.252.847.193.569.200</t>
-  </si>
-  <si>
-    <t>Erythema Chronicum Migrans</t>
-  </si>
-  <si>
-    <t>C01.252.847.511</t>
-  </si>
-  <si>
-    <t>Leptospirosis</t>
-  </si>
-  <si>
-    <t>C01.252.847.511.739</t>
-  </si>
-  <si>
-    <t>Weil Disease</t>
-  </si>
-  <si>
-    <t>C01.252.847.840.744.456</t>
-  </si>
-  <si>
-    <t>C01.252.847.840.744.456.778</t>
-  </si>
-  <si>
-    <t>C01.252.847.840.892</t>
-  </si>
-  <si>
-    <t>Yaws</t>
-  </si>
-  <si>
-    <t>C04.588.274.476.411.307.089.393</t>
-  </si>
-  <si>
-    <t>Gardner Syndrome</t>
-  </si>
-  <si>
-    <t>C04.588.274.476.411.307.180.800</t>
-  </si>
-  <si>
-    <t>Sigmoid Neoplasms</t>
-  </si>
-  <si>
-    <t>C04.588.274.476.411.307.790.040</t>
-  </si>
-  <si>
-    <t>Anus Neoplasms</t>
-  </si>
-  <si>
-    <t>C04.588.274.476.411.523</t>
-  </si>
-  <si>
-    <t>C04.588.274.476.767</t>
-  </si>
-  <si>
-    <t>Stomach Neoplasms</t>
-  </si>
-  <si>
-    <t>C04.588.274.761</t>
-  </si>
-  <si>
-    <t>C04.588.274.761.249</t>
-  </si>
-  <si>
-    <t>Adenoma, Islet Cell</t>
-  </si>
-  <si>
-    <t>C04.588.274.761.500.500</t>
-  </si>
-  <si>
-    <t>C04.588.274.780</t>
-  </si>
-  <si>
-    <t>Peritoneal Neoplasms</t>
-  </si>
-  <si>
-    <t>C04.588.322</t>
-  </si>
-  <si>
-    <t>Endocrine Gland Neoplasms</t>
-  </si>
-  <si>
-    <t>C04.588.443.591.545</t>
-  </si>
-  <si>
-    <t>mesh_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mesh_term</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dermatology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cardiology</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +313,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -293,19 +328,60 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -314,9 +390,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="13"/>
@@ -669,7 +750,7 @@
     <col min="11" max="11" width="5.28515625" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="5" customWidth="1"/>
     <col min="15" max="15" width="6.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.42578125" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
@@ -689,13 +770,13 @@
         <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -715,7 +796,7 @@
       <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -733,14 +814,14 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
@@ -768,7 +849,7 @@
       <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -821,7 +902,7 @@
       <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -839,25 +920,25 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
@@ -874,7 +955,7 @@
       <c r="M4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -927,7 +1008,7 @@
       <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -980,7 +1061,7 @@
       <c r="M6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -1033,7 +1114,7 @@
       <c r="M7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -1086,7 +1167,7 @@
       <c r="M8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -1139,7 +1220,7 @@
       <c r="M9" t="s">
         <v>27</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -1157,7 +1238,7 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1175,13 +1256,13 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
         <v>27</v>
@@ -1192,7 +1273,7 @@
       <c r="M10" t="s">
         <v>27</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -1245,7 +1326,7 @@
       <c r="M11" t="s">
         <v>27</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -1298,7 +1379,7 @@
       <c r="M12" t="s">
         <v>27</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -1351,7 +1432,7 @@
       <c r="M13" t="s">
         <v>27</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -1404,7 +1485,7 @@
       <c r="M14" t="s">
         <v>27</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -1457,7 +1538,7 @@
       <c r="M15" t="s">
         <v>27</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -1475,20 +1556,20 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
@@ -1505,13 +1586,13 @@
         <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16" t="s">
         <v>27</v>
       </c>
-      <c r="N16" t="s">
-        <v>0</v>
+      <c r="N16" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>27</v>
@@ -1563,7 +1644,7 @@
       <c r="M17" t="s">
         <v>27</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -1581,42 +1662,42 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>7</v>
       </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
       <c r="M18" t="s">
         <v>27</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -1669,7 +1750,7 @@
       <c r="M19" t="s">
         <v>27</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -1687,7 +1768,7 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1696,33 +1777,33 @@
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="N20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -1775,7 +1856,7 @@
       <c r="M21" t="s">
         <v>27</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -1828,7 +1909,7 @@
       <c r="M22" t="s">
         <v>27</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -1846,52 +1927,158 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" t="s">
+    </row>
+    <row r="24" spans="1:17" s="3" customFormat="1" ht="14">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>7</v>
+      <c r="O24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/spec/support/files/2010_analyzed_mesh_terms.xlsx
+++ b/spec/support/files/2010_analyzed_mesh_terms.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="79">
   <si>
     <t>A Pulmonary Term</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,12 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21.866.915.300.200.150</t>
+  </si>
+  <si>
+    <t>Brain Concussion</t>
   </si>
 </sst>
 </file>
@@ -731,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A26" sqref="A26:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="13"/>
@@ -2081,6 +2087,59 @@
         <v>27</v>
       </c>
     </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
